--- a/src/main/resources/poperties/exceltojson.xlsx
+++ b/src/main/resources/poperties/exceltojson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10815" windowHeight="8250"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>Sri</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Nischal</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>photoUrls</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Golden Retriever</t>
+  </si>
+  <si>
+    <t>doggie</t>
+  </si>
+  <si>
+    <t>nischal</t>
+  </si>
+  <si>
+    <t>Golden Retreiver tag</t>
+  </si>
+  <si>
+    <t>availabledog</t>
   </si>
 </sst>
 </file>
@@ -38,7 +62,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,46 +71,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,37 +180,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -139,31 +187,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,21 +218,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,30 +423,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,30 +437,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +465,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -496,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,134 +549,137 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,29 +999,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/poperties/exceltojson.xlsx
+++ b/src/main/resources/poperties/exceltojson.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Post" sheetId="1" r:id="rId1"/>
+    <sheet name="Put" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>availabledog</t>
+  </si>
+  <si>
+    <t>Retriever</t>
+  </si>
+  <si>
+    <t>Retreiver tag</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1008,8 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1073,4 +1080,97 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1100</v>
+      </c>
+      <c r="B2">
+        <v>1100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1100</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1200</v>
+      </c>
+      <c r="B3">
+        <v>1200</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1200</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>